--- a/Code/GenFootage/Input/test.xlsx
+++ b/Code/GenFootage/Input/test.xlsx
@@ -1,46 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Me\DL\Share\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_File\fujitsu\MBD\Share\Code\GenFootage\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC011ED-808A-4465-84CD-327B8DB344CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C896A18-A44D-459D-A792-6C0017CCF97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TxNormal" sheetId="3" r:id="rId1"/>
     <sheet name="191" sheetId="1" r:id="rId2"/>
     <sheet name="193" sheetId="5" r:id="rId3"/>
     <sheet name="RxNormal" sheetId="4" r:id="rId4"/>
-    <sheet name="192" sheetId="2" r:id="rId5"/>
+    <sheet name="1BF" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="104">
   <si>
     <t>Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,10 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,10 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>K_CAN_GMLAN_RX_SEL_192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>191</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,48 +276,175 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>yyyyy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>BIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frame Select Flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive Parameter  Invalid Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_TX_SEL_193</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1BF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parameter</t>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_SEL_1BF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turbo Control</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Error Indicator Value
-(Receive Default Value)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frame Select Flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Receive Parameter  Invalid Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>193</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K_CAN_GMLAN_TX_SEL_193</t>
+（Receive Default Value）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Not Used)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inv_device_vnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_gmlan_rx_trb_duty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN Turbo Duty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_TRB_DUTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_trb_duty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_gmlan_rx_trb_power_off_enb_stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_gmlan_rx_trb_ctrl_enb_stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN Turbo Power Off Enable Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVGT Turbo Control Enable Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_TRB_POWER_OFF_ENB_STAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_TRB_CTRL_ENB_STAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_trb_power_off_enb_stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_trb_ctrl_enb_stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_gmlan_rx_vnt_act_pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN Variable Npzzle Turbo Actual Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_VNT_ACT_POS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_vnt_act_pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_gmlan_rx_invalid_trb_err_msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_gmaln_rx_trb_err_msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN Turbo Error Message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_RX_DEFAULT_TRB_ERR_MSG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,7 +476,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -391,11 +499,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -418,25 +563,55 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,7 +897,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -737,131 +912,131 @@
       <selection activeCell="D37" sqref="D37:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.265625" customWidth="1"/>
+    <col min="4" max="4" width="45.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.73046875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="26.625" customWidth="1"/>
+    <col min="12" max="12" width="26.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="14" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="14" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="14" t="s">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="12" t="s">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
       <c r="K17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -884,8 +1059,8 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="10">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B19" s="12">
         <v>1</v>
       </c>
       <c r="C19" s="4">
@@ -912,15 +1087,15 @@
       <c r="J19" s="3">
         <v>1</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="10"/>
+      <c r="L19" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B20" s="12"/>
       <c r="C20" s="4">
         <v>7</v>
       </c>
@@ -945,11 +1120,11 @@
       <c r="J20" s="3">
         <v>1</v>
       </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B21" s="12"/>
       <c r="C21" s="4">
         <v>6</v>
       </c>
@@ -981,8 +1156,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B22" s="12"/>
       <c r="C22" s="4">
         <v>5</v>
       </c>
@@ -1014,110 +1189,110 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B23" s="12"/>
       <c r="C23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B24" s="3">
         <v>2</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B25" s="3">
         <v>3</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B26" s="3">
         <v>4</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="10">
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B27" s="12">
         <v>5</v>
       </c>
       <c r="C27" s="4">
@@ -1151,8 +1326,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="10"/>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B28" s="12"/>
       <c r="C28" s="4" t="s">
         <v>26</v>
       </c>
@@ -1184,8 +1359,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="10"/>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B29" s="12"/>
       <c r="C29" s="4" t="s">
         <v>27</v>
       </c>
@@ -1211,63 +1386,63 @@
         <v>1</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B30" s="12"/>
       <c r="C30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B31" s="3">
         <v>6</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B32" s="3">
         <v>7</v>
       </c>
@@ -1295,10 +1470,10 @@
       <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B33" s="3">
         <v>8</v>
       </c>
@@ -1334,28 +1509,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="B19:B23"/>
@@ -1372,25 +1555,17 @@
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1401,135 +1576,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0434B056-C7C5-4893-8CCA-203FF7DD5356}">
   <dimension ref="B6:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19:L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.265625" customWidth="1"/>
+    <col min="4" max="4" width="45.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.73046875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="26.625" customWidth="1"/>
+    <col min="12" max="12" width="26.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="14" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="14" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="12" t="s">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
       <c r="K17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -1552,8 +1727,8 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="10">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B19" s="12">
         <v>1</v>
       </c>
       <c r="C19" s="4">
@@ -1580,15 +1755,15 @@
       <c r="J19" s="3">
         <v>1</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="10"/>
+      <c r="L19" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B20" s="12"/>
       <c r="C20" s="4">
         <v>7</v>
       </c>
@@ -1613,11 +1788,11 @@
       <c r="J20" s="3">
         <v>1</v>
       </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B21" s="12"/>
       <c r="C21" s="4">
         <v>6</v>
       </c>
@@ -1649,8 +1824,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B22" s="12"/>
       <c r="C22" s="4">
         <v>5</v>
       </c>
@@ -1676,116 +1851,116 @@
         <v>1</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B23" s="12"/>
       <c r="C23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B24" s="3">
         <v>2</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B25" s="3">
         <v>3</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B26" s="3">
         <v>4</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="10">
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B27" s="12">
         <v>5</v>
       </c>
       <c r="C27" s="4">
@@ -1819,8 +1994,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="10"/>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B28" s="12"/>
       <c r="C28" s="4" t="s">
         <v>26</v>
       </c>
@@ -1852,8 +2027,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="10"/>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B29" s="12"/>
       <c r="C29" s="4" t="s">
         <v>27</v>
       </c>
@@ -1879,63 +2054,63 @@
         <v>1</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B30" s="12"/>
       <c r="C30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B31" s="3">
         <v>6</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B32" s="3">
         <v>7</v>
       </c>
@@ -1963,10 +2138,10 @@
       <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B33" s="3">
         <v>8</v>
       </c>
@@ -2002,41 +2177,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="F17:J17"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:L18"/>
@@ -2047,18 +2209,31 @@
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="G23:G24"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2073,7 +2248,7 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2082,38 +2257,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A09B516-AF41-41DC-95C7-D94752F69FB9}">
-  <dimension ref="B6:M37"/>
+  <dimension ref="B6:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:D28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.265625" customWidth="1"/>
+    <col min="4" max="4" width="45.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.73046875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="26.625" customWidth="1"/>
-    <col min="13" max="13" width="18.5" customWidth="1"/>
+    <col min="12" max="12" width="55.796875" customWidth="1"/>
+    <col min="13" max="13" width="43.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="2">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="15" t="s">
         <v>2</v>
       </c>
@@ -2123,7 +2298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" s="15" t="s">
         <v>3</v>
       </c>
@@ -2133,37 +2308,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" s="15" t="s">
         <v>5</v>
       </c>
@@ -2173,7 +2348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" s="15" t="s">
         <v>6</v>
       </c>
@@ -2181,62 +2356,62 @@
       <c r="D14" s="15"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" s="15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="12" t="s">
+      <c r="C19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
       <c r="K19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -2260,511 +2435,430 @@
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="10">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B21" s="3">
         <v>1</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3">
+        <v>73</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="17"/>
+      <c r="L22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B23" s="16">
+        <v>3</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="17"/>
+      <c r="L23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B24" s="17"/>
+      <c r="C24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" s="17"/>
+      <c r="L24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B25" s="17"/>
+      <c r="C25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" s="17"/>
+      <c r="L25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B26" s="18"/>
+      <c r="C26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="17"/>
+      <c r="L26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B27" s="16">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="17"/>
+      <c r="L27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B28" s="18"/>
+      <c r="C28" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0</v>
+      </c>
+      <c r="I28" s="16">
+        <v>0</v>
+      </c>
+      <c r="J28" s="16">
+        <v>100</v>
+      </c>
+      <c r="K28" s="17"/>
+      <c r="L28" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="M28" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B29" s="3">
+        <v>5</v>
+      </c>
+      <c r="C29" s="4">
+        <v>8</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B30" s="3">
+        <v>6</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="16">
         <v>1</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
-      <c r="C22" s="4">
+      <c r="H30" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" s="16">
+        <v>0</v>
+      </c>
+      <c r="J30" s="16">
+        <v>65535</v>
+      </c>
+      <c r="K30" s="17"/>
+      <c r="L30" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="M30" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B31" s="3">
         <v>7</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1</v>
-      </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
-      <c r="C23" s="4">
-        <v>6</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="10"/>
-      <c r="C24" s="4">
-        <v>5</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="10"/>
-      <c r="C25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="3">
-        <v>2</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="3">
-        <v>3</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="3">
-        <v>4</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="10">
-        <v>5</v>
-      </c>
-      <c r="C29" s="4">
-        <v>8</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>1</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
-      <c r="C30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="10"/>
       <c r="C31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3">
-        <v>1</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="24"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B32" s="3">
+        <v>8</v>
+      </c>
       <c r="C32" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="18"/>
+      <c r="L32" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33" s="3">
-        <v>6</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34" s="3">
-        <v>7</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
-        <v>0</v>
-      </c>
-      <c r="J34" s="3">
-        <v>100</v>
-      </c>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35" s="3">
-        <v>8</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
         <v>54</v>
       </c>
-      <c r="M35" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="1"/>
+      <c r="C34" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="39">
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="K21:K32"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="E19:E20"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B7:D7"/>
@@ -2781,39 +2875,6 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K34"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Code/GenFootage/Input/test.xlsx
+++ b/Code/GenFootage/Input/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_File\fujitsu\MBD\Share\Code\GenFootage\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Me\DL\Share\Code\GenFootage\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C896A18-A44D-459D-A792-6C0017CCF97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0134838C-DE0D-4F80-A2C8-E46EC694987B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TxNormal" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="105">
   <si>
     <t>Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -445,6 +445,10 @@
   </si>
   <si>
     <t>K_CAN_GMLAN_RX_DEFAULT_TRB_ERR_MSG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,40 +566,46 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -604,14 +614,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -897,7 +901,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -912,135 +916,135 @@
       <selection activeCell="D37" sqref="D37:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.265625" customWidth="1"/>
-    <col min="4" max="4" width="45.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="26.59765625" customWidth="1"/>
+    <col min="12" max="12" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B17" s="10" t="s">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11" t="s">
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1056,11 +1060,11 @@
       <c r="J18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B19" s="12">
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="11">
         <v>1</v>
       </c>
       <c r="C19" s="4">
@@ -1087,15 +1091,15 @@
       <c r="J19" s="3">
         <v>1</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B20" s="12"/>
+      <c r="L19" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="11"/>
       <c r="C20" s="4">
         <v>7</v>
       </c>
@@ -1120,11 +1124,11 @@
       <c r="J20" s="3">
         <v>1</v>
       </c>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B21" s="12"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="11"/>
       <c r="C21" s="4">
         <v>6</v>
       </c>
@@ -1156,8 +1160,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B22" s="12"/>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="11"/>
       <c r="C22" s="4">
         <v>5</v>
       </c>
@@ -1189,110 +1193,110 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B23" s="12"/>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="11"/>
       <c r="C23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L23" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <v>2</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="13"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>3</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="10" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="F25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <v>4</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="13"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B27" s="12">
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="11">
         <v>5</v>
       </c>
       <c r="C27" s="4">
@@ -1326,8 +1330,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B28" s="12"/>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="11"/>
       <c r="C28" s="4" t="s">
         <v>26</v>
       </c>
@@ -1359,8 +1363,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B29" s="12"/>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="11"/>
       <c r="C29" s="4" t="s">
         <v>27</v>
       </c>
@@ -1392,57 +1396,57 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B30" s="12"/>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="11"/>
       <c r="C30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="10" t="s">
         <v>37</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="13" t="s">
+      <c r="J30" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K30" s="13" t="s">
+      <c r="K30" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L30" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <v>6</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <v>7</v>
       </c>
@@ -1470,10 +1474,10 @@
       <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
         <v>8</v>
       </c>
@@ -1509,10 +1513,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>54</v>
       </c>
@@ -1520,25 +1524,17 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="B19:B23"/>
@@ -1555,6 +1551,682 @@
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K23:K24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0434B056-C7C5-4893-8CCA-203FF7DD5356}">
+  <dimension ref="B6:L35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19:L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="12" max="12" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="11">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="11"/>
+      <c r="C20" s="4">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="11"/>
+      <c r="C21" s="4">
+        <v>6</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="11"/>
+      <c r="C22" s="4">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="11"/>
+      <c r="C23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="11">
+        <v>5</v>
+      </c>
+      <c r="C27" s="4">
+        <v>8</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="11"/>
+      <c r="C28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="11"/>
+      <c r="C29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="11"/>
+      <c r="C30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="3">
+        <v>6</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="3">
+        <v>7</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B33" s="3">
+        <v>8</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="3">
+        <f>-G8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="L23:L24"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B17:B18"/>
@@ -1572,674 +2244,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0434B056-C7C5-4893-8CCA-203FF7DD5356}">
-  <dimension ref="B6:L35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19:L20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="3" max="3" width="10.265625" customWidth="1"/>
-    <col min="4" max="4" width="45.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.73046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="26.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B19" s="12">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4">
-        <v>8</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>1</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B20" s="12"/>
-      <c r="C20" s="4">
-        <v>7</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1</v>
-      </c>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B21" s="12"/>
-      <c r="C21" s="4">
-        <v>6</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B22" s="12"/>
-      <c r="C22" s="4">
-        <v>5</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B23" s="12"/>
-      <c r="C23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B24" s="3">
-        <v>2</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B25" s="3">
-        <v>3</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="3">
-        <v>4</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B27" s="12">
-        <v>5</v>
-      </c>
-      <c r="C27" s="4">
-        <v>8</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B28" s="12"/>
-      <c r="C28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B29" s="12"/>
-      <c r="C29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>1</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B30" s="12"/>
-      <c r="C30" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B31" s="3">
-        <v>6</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B32" s="3">
-        <v>7</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>100</v>
-      </c>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B33" s="3">
-        <v>8</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L33" s="3">
-        <f>-G8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A60496C-52DE-4E99-92C5-0B4D6BD67B16}">
   <dimension ref="A1"/>
@@ -2248,7 +2252,7 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2260,162 +2264,162 @@
   <dimension ref="B6:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.265625" customWidth="1"/>
-    <col min="4" max="4" width="45.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="55.796875" customWidth="1"/>
-    <col min="13" max="13" width="43.1328125" customWidth="1"/>
+    <col min="12" max="12" width="55.75" customWidth="1"/>
+    <col min="13" max="13" width="43.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="15" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="15" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="15" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="15" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="15" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="15" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="15" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B19" s="10" t="s">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="11" t="s">
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="2" t="s">
         <v>22</v>
       </c>
@@ -2431,11 +2435,11 @@
       <c r="J20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>1</v>
       </c>
@@ -2463,17 +2467,17 @@
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="L21" s="25" t="s">
+      <c r="L21" s="9" t="s">
         <v>8</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>2</v>
       </c>
@@ -2501,7 +2505,7 @@
       <c r="J22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K22" s="17"/>
+      <c r="K22" s="22"/>
       <c r="L22" s="6" t="s">
         <v>81</v>
       </c>
@@ -2509,8 +2513,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B23" s="16">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23" s="18">
         <v>3</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -2537,7 +2541,7 @@
       <c r="J23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K23" s="17"/>
+      <c r="K23" s="22"/>
       <c r="L23" s="6" t="s">
         <v>8</v>
       </c>
@@ -2545,8 +2549,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B24" s="17"/>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24" s="22"/>
       <c r="C24" s="4" t="s">
         <v>84</v>
       </c>
@@ -2571,7 +2575,7 @@
       <c r="J24" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K24" s="17"/>
+      <c r="K24" s="22"/>
       <c r="L24" s="6" t="s">
         <v>90</v>
       </c>
@@ -2579,8 +2583,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B25" s="17"/>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25" s="22"/>
       <c r="C25" s="4" t="s">
         <v>85</v>
       </c>
@@ -2605,7 +2609,7 @@
       <c r="J25" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K25" s="17"/>
+      <c r="K25" s="22"/>
       <c r="L25" s="6" t="s">
         <v>91</v>
       </c>
@@ -2613,8 +2617,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B26" s="18"/>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26" s="19"/>
       <c r="C26" s="4" t="s">
         <v>77</v>
       </c>
@@ -2639,7 +2643,7 @@
       <c r="J26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="17"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="6" t="s">
         <v>8</v>
       </c>
@@ -2647,8 +2651,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B27" s="16">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27" s="18">
         <v>4</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -2675,7 +2679,7 @@
       <c r="J27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="17"/>
+      <c r="K27" s="22"/>
       <c r="L27" s="6" t="s">
         <v>8</v>
       </c>
@@ -2683,113 +2687,113 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B28" s="18"/>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28" s="19"/>
       <c r="C28" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="18">
         <v>0.1</v>
       </c>
-      <c r="H28" s="16">
-        <v>0</v>
-      </c>
-      <c r="I28" s="16">
-        <v>0</v>
-      </c>
-      <c r="J28" s="16">
+      <c r="H28" s="18">
+        <v>0</v>
+      </c>
+      <c r="I28" s="18">
+        <v>0</v>
+      </c>
+      <c r="J28" s="18">
         <v>100</v>
       </c>
-      <c r="K28" s="17"/>
-      <c r="L28" s="23" t="s">
+      <c r="K28" s="22"/>
+      <c r="L28" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="M28" s="23" t="s">
+      <c r="M28" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <v>5</v>
       </c>
-      <c r="C29" s="4">
-        <v>8</v>
-      </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C29" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <v>6</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="16">
+      <c r="F30" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="18">
         <v>1</v>
       </c>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I30" s="16">
-        <v>0</v>
-      </c>
-      <c r="J30" s="16">
+      <c r="I30" s="18">
+        <v>0</v>
+      </c>
+      <c r="J30" s="18">
         <v>65535</v>
       </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="21" t="s">
+      <c r="K30" s="22"/>
+      <c r="L30" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="M30" s="23" t="s">
+      <c r="M30" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <v>7</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="24"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="D31" s="17"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="21"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <v>8</v>
       </c>
@@ -2817,7 +2821,7 @@
       <c r="J32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="18"/>
+      <c r="K32" s="19"/>
       <c r="L32" s="6" t="s">
         <v>8</v>
       </c>
@@ -2825,10 +2829,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>54</v>
       </c>
@@ -2836,27 +2840,8 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="K21:K32"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="K19:K20"/>
     <mergeCell ref="L19:L20"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="M19:M20"/>
@@ -2873,8 +2858,27 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="K21:K32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Code/GenFootage/Input/test.xlsx
+++ b/Code/GenFootage/Input/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Me\DL\Share\Code\GenFootage\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0134838C-DE0D-4F80-A2C8-E46EC694987B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC54FDE6-D1E7-4720-8C2B-C9E61595807D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41055" yWindow="7020" windowWidth="33300" windowHeight="12105" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TxNormal" sheetId="3" r:id="rId1"/>
@@ -19,10 +19,21 @@
     <sheet name="RxNormal" sheetId="4" r:id="rId4"/>
     <sheet name="1BF" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -570,28 +581,25 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -599,13 +607,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -614,8 +619,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -931,79 +942,79 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="8" t="s">
         <v>11</v>
       </c>
@@ -1014,29 +1025,29 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
       <c r="K17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1064,7 +1075,7 @@
       <c r="L18" s="12"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="11">
+      <c r="B19" s="13">
         <v>1</v>
       </c>
       <c r="C19" s="4">
@@ -1091,15 +1102,15 @@
       <c r="J19" s="3">
         <v>1</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="11"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="4">
         <v>7</v>
       </c>
@@ -1124,11 +1135,11 @@
       <c r="J20" s="3">
         <v>1</v>
       </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="11"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="4">
         <v>6</v>
       </c>
@@ -1161,7 +1172,7 @@
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="11"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="4">
         <v>5</v>
       </c>
@@ -1194,35 +1205,35 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="11"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="L23" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1233,15 +1244,15 @@
       <c r="C24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
@@ -1250,31 +1261,31 @@
       <c r="C25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25" s="10" t="s">
+      <c r="F25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1285,18 +1296,18 @@
       <c r="C26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="11">
+      <c r="B27" s="13">
         <v>5</v>
       </c>
       <c r="C27" s="4">
@@ -1331,7 +1342,7 @@
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="11"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="4" t="s">
         <v>26</v>
       </c>
@@ -1364,7 +1375,7 @@
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="11"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="4" t="s">
         <v>27</v>
       </c>
@@ -1397,35 +1408,35 @@
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="11"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="10" t="s">
+      <c r="L30" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1436,15 +1447,15 @@
       <c r="C31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
@@ -1474,8 +1485,8 @@
       <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
@@ -1524,17 +1535,25 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="B19:B23"/>
@@ -1551,25 +1570,17 @@
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1599,79 +1610,79 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="8" t="s">
         <v>11</v>
       </c>
@@ -1682,29 +1693,29 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
       <c r="K17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1732,7 +1743,7 @@
       <c r="L18" s="12"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="11">
+      <c r="B19" s="13">
         <v>1</v>
       </c>
       <c r="C19" s="4">
@@ -1759,15 +1770,15 @@
       <c r="J19" s="3">
         <v>1</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="11"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="4">
         <v>7</v>
       </c>
@@ -1792,11 +1803,11 @@
       <c r="J20" s="3">
         <v>1</v>
       </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="11"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="4">
         <v>6</v>
       </c>
@@ -1829,7 +1840,7 @@
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="11"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="4">
         <v>5</v>
       </c>
@@ -1862,35 +1873,35 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="11"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="L23" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1901,15 +1912,15 @@
       <c r="C24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
@@ -1918,31 +1929,31 @@
       <c r="C25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25" s="10" t="s">
+      <c r="F25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1953,18 +1964,18 @@
       <c r="C26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="11">
+      <c r="B27" s="13">
         <v>5</v>
       </c>
       <c r="C27" s="4">
@@ -1999,7 +2010,7 @@
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="11"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="4" t="s">
         <v>26</v>
       </c>
@@ -2032,7 +2043,7 @@
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="11"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="4" t="s">
         <v>27</v>
       </c>
@@ -2065,35 +2076,35 @@
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="11"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="10" t="s">
+      <c r="L30" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2104,15 +2115,15 @@
       <c r="C31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
@@ -2142,8 +2153,8 @@
       <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
@@ -2192,29 +2203,17 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="F17:J17"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:L18"/>
@@ -2227,17 +2226,29 @@
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="L23:L24"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2264,7 +2275,7 @@
   <dimension ref="B6:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2283,99 +2294,99 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="2" t="s">
         <v>71</v>
       </c>
@@ -2386,32 +2397,32 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
       <c r="K19" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="M19" s="13" t="s">
+      <c r="M19" s="11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2467,7 +2478,7 @@
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="18" t="s">
+      <c r="K21" s="17" t="s">
         <v>74</v>
       </c>
       <c r="L21" s="9" t="s">
@@ -2497,7 +2508,7 @@
         <v>77</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>79</v>
@@ -2505,7 +2516,7 @@
       <c r="J22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K22" s="22"/>
+      <c r="K22" s="23"/>
       <c r="L22" s="6" t="s">
         <v>81</v>
       </c>
@@ -2514,7 +2525,7 @@
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="18">
+      <c r="B23" s="17">
         <v>3</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -2541,7 +2552,7 @@
       <c r="J23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K23" s="22"/>
+      <c r="K23" s="23"/>
       <c r="L23" s="6" t="s">
         <v>8</v>
       </c>
@@ -2550,7 +2561,7 @@
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="22"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="4" t="s">
         <v>84</v>
       </c>
@@ -2575,7 +2586,7 @@
       <c r="J24" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K24" s="22"/>
+      <c r="K24" s="23"/>
       <c r="L24" s="6" t="s">
         <v>90</v>
       </c>
@@ -2584,7 +2595,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="22"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="4" t="s">
         <v>85</v>
       </c>
@@ -2609,7 +2620,7 @@
       <c r="J25" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K25" s="22"/>
+      <c r="K25" s="23"/>
       <c r="L25" s="6" t="s">
         <v>91</v>
       </c>
@@ -2618,7 +2629,7 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="19"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="4" t="s">
         <v>77</v>
       </c>
@@ -2643,7 +2654,7 @@
       <c r="J26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="22"/>
+      <c r="K26" s="23"/>
       <c r="L26" s="6" t="s">
         <v>8</v>
       </c>
@@ -2652,7 +2663,7 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="18">
+      <c r="B27" s="17">
         <v>4</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -2679,7 +2690,7 @@
       <c r="J27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="22"/>
+      <c r="K27" s="23"/>
       <c r="L27" s="6" t="s">
         <v>8</v>
       </c>
@@ -2688,36 +2699,36 @@
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="19"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="17">
         <v>0.1</v>
       </c>
-      <c r="H28" s="18">
-        <v>0</v>
-      </c>
-      <c r="I28" s="18">
-        <v>0</v>
-      </c>
-      <c r="J28" s="18">
+      <c r="H28" s="17">
+        <v>0</v>
+      </c>
+      <c r="I28" s="17">
+        <v>0</v>
+      </c>
+      <c r="J28" s="17">
         <v>100</v>
       </c>
-      <c r="K28" s="22"/>
-      <c r="L28" s="20" t="s">
+      <c r="K28" s="23"/>
+      <c r="L28" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="M28" s="20" t="s">
+      <c r="M28" s="24" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2728,16 +2739,16 @@
       <c r="C29" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
@@ -2746,32 +2757,32 @@
       <c r="C30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F30" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="18">
+      <c r="F30" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="17">
         <v>1</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="I30" s="18">
-        <v>0</v>
-      </c>
-      <c r="J30" s="18">
+      <c r="I30" s="17">
+        <v>0</v>
+      </c>
+      <c r="J30" s="17">
         <v>65535</v>
       </c>
-      <c r="K30" s="22"/>
-      <c r="L30" s="23" t="s">
+      <c r="K30" s="23"/>
+      <c r="L30" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="M30" s="20" t="s">
+      <c r="M30" s="24" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2782,16 +2793,16 @@
       <c r="C31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="21"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="25"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
@@ -2821,7 +2832,7 @@
       <c r="J32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="19"/>
+      <c r="K32" s="18"/>
       <c r="L32" s="6" t="s">
         <v>8</v>
       </c>
@@ -2840,34 +2851,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="I30:I31"/>
     <mergeCell ref="J30:J31"/>
@@ -2879,6 +2862,34 @@
     <mergeCell ref="M28:M29"/>
     <mergeCell ref="L30:L31"/>
     <mergeCell ref="K21:K32"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="M19:M20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Code/GenFootage/Input/test.xlsx
+++ b/Code/GenFootage/Input/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Me\DL\Share\Code\GenFootage\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC54FDE6-D1E7-4720-8C2B-C9E61595807D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF9DB93-4677-424C-B83F-82FE16193C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41055" yWindow="7020" windowWidth="33300" windowHeight="12105" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37515" yWindow="4215" windowWidth="33300" windowHeight="12105" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TxNormal" sheetId="3" r:id="rId1"/>
@@ -447,10 +447,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>can_gmaln_rx_trb_err_msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CAN Turbo Error Message</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -460,6 +456,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_gmlan_rx_trb_err_msg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2274,8 +2274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A09B516-AF41-41DC-95C7-D94752F69FB9}">
   <dimension ref="B6:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2508,7 +2508,7 @@
         <v>77</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>79</v>
@@ -2737,7 +2737,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="22"/>
@@ -2758,10 +2758,10 @@
         <v>8</v>
       </c>
       <c r="D30" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="21" t="s">
         <v>101</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>102</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>8</v>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="K30" s="23"/>
       <c r="L30" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M30" s="24" t="s">
         <v>100</v>
